--- a/form2/grs_atualizado_form2.xlsx
+++ b/form2/grs_atualizado_form2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="grs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41,7 +41,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -102,6 +102,12 @@
         <bgColor rgb="00006400"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6400"/>
+        <bgColor rgb="00FF6400"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -129,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -147,6 +153,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -709,7 +718,11 @@
           <t>Gisele Cássia Tamparowsky de Oliveira</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n"/>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F4" s="3" t="n"/>
       <c r="G4" s="5" t="inlineStr">
         <is>
@@ -787,7 +800,11 @@
           <t>Geni Rodrigues da Silva morais</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n"/>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F6" s="3" t="n"/>
       <c r="G6" s="5" t="inlineStr">
         <is>
@@ -847,7 +864,7 @@
       <c r="K7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="inlineStr">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -908,7 +925,11 @@
           <t>Diego Hemerich</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n"/>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F9" s="3" t="n"/>
       <c r="G9" s="5" t="inlineStr">
         <is>
@@ -968,7 +989,7 @@
       <c r="K10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="A11" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -986,7 +1007,11 @@
           <t>Gabriela Fernanda Sandri</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n"/>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F11" s="3" t="n"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
@@ -1003,7 +1028,7 @@
       <c r="K11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1021,7 +1046,11 @@
           <t>Edson Batista de Castro</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n"/>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F12" s="3" t="n"/>
       <c r="G12" s="5" t="inlineStr">
         <is>
@@ -1038,7 +1067,7 @@
       <c r="K12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="A13" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1056,7 +1085,11 @@
           <t>Eduarda rohden donasolo</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n"/>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F13" s="3" t="n"/>
       <c r="G13" s="5" t="inlineStr">
         <is>
@@ -1073,7 +1106,7 @@
       <c r="K13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="inlineStr">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1091,7 +1124,11 @@
           <t>Kelly Regina linzmeier de Lima</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n"/>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F14" s="3" t="n"/>
       <c r="G14" s="5" t="inlineStr">
         <is>
@@ -1108,7 +1145,7 @@
       <c r="K14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1122,7 +1159,11 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F15" s="3" t="n"/>
       <c r="G15" s="5" t="inlineStr">
         <is>
@@ -1139,7 +1180,7 @@
       <c r="K15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="inlineStr">
+      <c r="A16" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1153,7 +1194,11 @@
         <v>6</v>
       </c>
       <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F16" s="3" t="n"/>
       <c r="G16" s="5" t="inlineStr">
         <is>
@@ -1213,7 +1258,7 @@
       <c r="K17" s="3" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1231,7 +1276,11 @@
           <t>Douglas de Mattia / Alvaro Rodrigues</t>
         </is>
       </c>
-      <c r="E18" s="3" t="n"/>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="5" t="inlineStr">
         <is>
@@ -1266,7 +1315,11 @@
           <t>Vanderson Pasetti</t>
         </is>
       </c>
-      <c r="E19" s="3" t="n"/>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F19" s="3" t="n"/>
       <c r="G19" s="5" t="inlineStr">
         <is>
@@ -1283,7 +1336,7 @@
       <c r="K19" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="A20" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1311,7 +1364,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G20" s="9" t="inlineStr">
+      <c r="G20" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1369,7 +1422,7 @@
       <c r="K21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1383,7 +1436,11 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="n"/>
-      <c r="E22" s="3" t="n"/>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="5" t="inlineStr">
         <is>
@@ -1400,7 +1457,7 @@
       <c r="K22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1418,7 +1475,11 @@
           <t>thiago varaschim cenci</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n"/>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F23" s="3" t="n"/>
       <c r="G23" s="5" t="inlineStr">
         <is>
@@ -1435,7 +1496,7 @@
       <c r="K23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="inlineStr">
+      <c r="A24" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1453,7 +1514,11 @@
           <t>Andrea Carla Winkelmann</t>
         </is>
       </c>
-      <c r="E24" s="3" t="n"/>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="5" t="inlineStr">
         <is>
@@ -1470,7 +1535,7 @@
       <c r="K24" s="3" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="inlineStr">
+      <c r="A25" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1488,7 +1553,11 @@
           <t>Lorizete de Andrade</t>
         </is>
       </c>
-      <c r="E25" s="3" t="n"/>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F25" s="3" t="n"/>
       <c r="G25" s="5" t="inlineStr">
         <is>
@@ -1505,7 +1574,7 @@
       <c r="K25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="inlineStr">
+      <c r="A26" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1523,7 +1592,11 @@
           <t>Andressa Maia</t>
         </is>
       </c>
-      <c r="E26" s="3" t="n"/>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F26" s="3" t="n"/>
       <c r="G26" s="5" t="inlineStr">
         <is>
@@ -1540,7 +1613,7 @@
       <c r="K26" s="3" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="inlineStr">
+      <c r="A27" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1558,7 +1631,11 @@
           <t>Lucas Correia de Souza</t>
         </is>
       </c>
-      <c r="E27" s="3" t="n"/>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F27" s="3" t="n"/>
       <c r="G27" s="5" t="inlineStr">
         <is>
@@ -1575,7 +1652,7 @@
       <c r="K27" s="3" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="inlineStr">
+      <c r="A28" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1618,7 +1695,7 @@
       <c r="K28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="inlineStr">
+      <c r="A29" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1661,7 +1738,7 @@
       <c r="K29" s="3" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="inlineStr">
+      <c r="A30" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1722,7 +1799,11 @@
           <t>Paulo Rogerio Hiroshi Fujii</t>
         </is>
       </c>
-      <c r="E31" s="3" t="n"/>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F31" s="3" t="n"/>
       <c r="G31" s="5" t="inlineStr">
         <is>
@@ -1757,7 +1838,11 @@
           <t>Marlene R. Oliveira Dallacosta</t>
         </is>
       </c>
-      <c r="E32" s="3" t="n"/>
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F32" s="3" t="n"/>
       <c r="G32" s="5" t="inlineStr">
         <is>
@@ -1903,7 +1988,7 @@
       <c r="K35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="inlineStr">
+      <c r="A36" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1946,7 +2031,7 @@
       <c r="K36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="inlineStr">
+      <c r="A37" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1989,7 +2074,7 @@
       <c r="K37" s="3" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="inlineStr">
+      <c r="A38" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -2007,7 +2092,11 @@
           <t>Francilaine Cavalini de Oliveira</t>
         </is>
       </c>
-      <c r="E38" s="3" t="n"/>
+      <c r="E38" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F38" s="3" t="n"/>
       <c r="G38" s="5" t="inlineStr">
         <is>
@@ -2042,7 +2131,11 @@
           <t>Ailton Carlos Fialho</t>
         </is>
       </c>
-      <c r="E39" s="3" t="n"/>
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F39" s="3" t="n"/>
       <c r="G39" s="5" t="inlineStr">
         <is>
@@ -2059,7 +2152,7 @@
       <c r="K39" s="3" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="inlineStr">
+      <c r="A40" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2073,7 +2166,11 @@
         <v>1</v>
       </c>
       <c r="D40" s="3" t="n"/>
-      <c r="E40" s="3" t="n"/>
+      <c r="E40" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F40" s="3" t="n"/>
       <c r="G40" s="5" t="inlineStr">
         <is>
@@ -2090,7 +2187,7 @@
       <c r="K40" s="3" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="inlineStr">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2104,7 +2201,11 @@
         <v>2</v>
       </c>
       <c r="D41" s="3" t="n"/>
-      <c r="E41" s="3" t="n"/>
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F41" s="3" t="n"/>
       <c r="G41" s="5" t="inlineStr">
         <is>
@@ -2139,7 +2240,11 @@
           <t>Cleiton Manske</t>
         </is>
       </c>
-      <c r="E42" s="3" t="n"/>
+      <c r="E42" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F42" s="3" t="n"/>
       <c r="G42" s="5" t="inlineStr">
         <is>
@@ -2156,7 +2261,7 @@
       <c r="K42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="10" t="inlineStr">
+      <c r="A43" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2174,7 +2279,11 @@
           <t>Alexandro Aparecido de Lima Vieira</t>
         </is>
       </c>
-      <c r="E43" s="3" t="n"/>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="5" t="inlineStr">
         <is>
@@ -2191,7 +2300,7 @@
       <c r="K43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="10" t="inlineStr">
+      <c r="A44" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2252,7 +2361,11 @@
           <t>Roberto Pedron</t>
         </is>
       </c>
-      <c r="E45" s="3" t="n"/>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="5" t="inlineStr">
         <is>
@@ -2269,7 +2382,7 @@
       <c r="K45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="inlineStr">
+      <c r="A46" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2297,7 +2410,7 @@
           <t>12/03/2025</t>
         </is>
       </c>
-      <c r="G46" s="9" t="inlineStr">
+      <c r="G46" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2330,7 +2443,11 @@
           <t>Jaqueline Fernanda Meireles</t>
         </is>
       </c>
-      <c r="E47" s="3" t="n"/>
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="5" t="inlineStr">
         <is>
@@ -2347,7 +2464,7 @@
       <c r="K47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="inlineStr">
+      <c r="A48" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -2365,7 +2482,11 @@
           <t>Luiz Fernando Pereira Barbosa</t>
         </is>
       </c>
-      <c r="E48" s="3" t="n"/>
+      <c r="E48" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F48" s="3" t="n"/>
       <c r="G48" s="5" t="inlineStr">
         <is>
@@ -2400,7 +2521,11 @@
           <t>Carolina Eggers</t>
         </is>
       </c>
-      <c r="E49" s="3" t="n"/>
+      <c r="E49" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F49" s="3" t="n"/>
       <c r="G49" s="5" t="inlineStr">
         <is>
@@ -2478,7 +2603,11 @@
           <t>Dorival Manoel Canhete</t>
         </is>
       </c>
-      <c r="E51" s="3" t="n"/>
+      <c r="E51" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F51" s="3" t="n"/>
       <c r="G51" s="5" t="inlineStr">
         <is>
@@ -2495,7 +2624,7 @@
       <c r="K51" s="3" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="inlineStr">
+      <c r="A52" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2523,7 +2652,7 @@
           <t>05/03/2025</t>
         </is>
       </c>
-      <c r="G52" s="9" t="inlineStr">
+      <c r="G52" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2556,7 +2685,11 @@
           <t>Fernanda Jung</t>
         </is>
       </c>
-      <c r="E53" s="3" t="n"/>
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F53" s="3" t="n"/>
       <c r="G53" s="5" t="inlineStr">
         <is>
@@ -2573,7 +2706,7 @@
       <c r="K53" s="3" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="inlineStr">
+      <c r="A54" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2591,7 +2724,11 @@
           <t>Ana Paula Romagnoli</t>
         </is>
       </c>
-      <c r="E54" s="3" t="n"/>
+      <c r="E54" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F54" s="3" t="n"/>
       <c r="G54" s="5" t="inlineStr">
         <is>
@@ -2608,7 +2745,7 @@
       <c r="K54" s="3" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="inlineStr">
+      <c r="A55" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2626,7 +2763,11 @@
           <t>Isabel Caroline Fruhling</t>
         </is>
       </c>
-      <c r="E55" s="3" t="n"/>
+      <c r="E55" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F55" s="3" t="n"/>
       <c r="G55" s="5" t="inlineStr">
         <is>
@@ -2686,7 +2827,7 @@
       <c r="K56" s="3" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="inlineStr">
+      <c r="A57" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2714,7 +2855,7 @@
           <t>19/03/2025</t>
         </is>
       </c>
-      <c r="G57" s="9" t="inlineStr">
+      <c r="G57" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2729,7 +2870,7 @@
       <c r="K57" s="3" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="10" t="inlineStr">
+      <c r="A58" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2747,7 +2888,11 @@
           <t>Taiane Amélia Mondardo</t>
         </is>
       </c>
-      <c r="E58" s="3" t="n"/>
+      <c r="E58" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F58" s="3" t="n"/>
       <c r="G58" s="5" t="inlineStr">
         <is>
@@ -2764,7 +2909,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="inlineStr">
+      <c r="A59" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2792,7 +2937,7 @@
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="G59" s="9" t="inlineStr">
+      <c r="G59" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2811,7 +2956,7 @@
       <c r="K59" s="3" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="10" t="inlineStr">
+      <c r="A60" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2829,7 +2974,11 @@
           <t>Andryws Rafael Gois</t>
         </is>
       </c>
-      <c r="E60" s="3" t="n"/>
+      <c r="E60" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F60" s="3" t="n"/>
       <c r="G60" s="5" t="inlineStr">
         <is>
@@ -2846,7 +2995,7 @@
       <c r="K60" s="3" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="inlineStr">
+      <c r="A61" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2864,7 +3013,11 @@
           <t>Mayara Ketllyn de Paula Rosetti</t>
         </is>
       </c>
-      <c r="E61" s="3" t="n"/>
+      <c r="E61" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F61" s="3" t="n"/>
       <c r="G61" s="5" t="inlineStr">
         <is>
@@ -2881,7 +3034,7 @@
       <c r="K61" s="3" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="10" t="inlineStr">
+      <c r="A62" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2899,7 +3052,11 @@
           <t>Junior Andre Britzke</t>
         </is>
       </c>
-      <c r="E62" s="3" t="n"/>
+      <c r="E62" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F62" s="3" t="n"/>
       <c r="G62" s="5" t="inlineStr">
         <is>
@@ -2934,7 +3091,11 @@
           <t>Adriano Pereira Guedes</t>
         </is>
       </c>
-      <c r="E63" s="3" t="n"/>
+      <c r="E63" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F63" s="3" t="n"/>
       <c r="G63" s="5" t="inlineStr">
         <is>
@@ -2969,7 +3130,11 @@
           <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
         </is>
       </c>
-      <c r="E64" s="3" t="n"/>
+      <c r="E64" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F64" s="3" t="n"/>
       <c r="G64" s="5" t="inlineStr">
         <is>
@@ -3029,7 +3194,7 @@
       <c r="K65" s="3" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="inlineStr">
+      <c r="A66" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -3072,7 +3237,7 @@
       <c r="K66" s="3" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="inlineStr">
+      <c r="A67" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -3090,7 +3255,11 @@
           <t xml:space="preserve">Ademir Papini Júnior </t>
         </is>
       </c>
-      <c r="E67" s="3" t="n"/>
+      <c r="E67" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F67" s="3" t="n"/>
       <c r="G67" s="5" t="inlineStr">
         <is>
@@ -3107,7 +3276,7 @@
       <c r="K67" s="3" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="inlineStr">
+      <c r="A68" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -3125,7 +3294,11 @@
           <t>Heloísa Maria Beloni Insenha</t>
         </is>
       </c>
-      <c r="E68" s="3" t="n"/>
+      <c r="E68" s="7" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F68" s="3" t="n"/>
       <c r="G68" s="5" t="inlineStr">
         <is>

--- a/form2/grs_atualizado_form2.xlsx
+++ b/form2/grs_atualizado_form2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="grs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/form2/grs_atualizado_form2.xlsx
+++ b/form2/grs_atualizado_form2.xlsx
@@ -41,7 +41,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -108,6 +108,12 @@
         <bgColor rgb="00FF6400"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A020F0"/>
+        <bgColor rgb="00A020F0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -135,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -159,6 +165,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -547,8 +556,8 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="51" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="75" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="22" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
@@ -800,12 +809,16 @@
           <t>Geni Rodrigues da Silva morais</t>
         </is>
       </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="n"/>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1007,12 +1020,16 @@
           <t>Gabriela Fernanda Sandri</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="n"/>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1046,12 +1063,16 @@
           <t>Edson Batista de Castro</t>
         </is>
       </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="n"/>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1124,12 +1145,16 @@
           <t>Kelly Regina linzmeier de Lima</t>
         </is>
       </c>
-      <c r="E14" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="n"/>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>Envio Duplicado</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>10/04/2025, 10/04/2025, 09/05/2025</t>
+        </is>
+      </c>
       <c r="G14" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1159,12 +1184,16 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="n"/>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="n"/>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1258,7 +1287,7 @@
       <c r="K17" s="3" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="inlineStr">
+      <c r="A18" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1336,7 +1365,7 @@
       <c r="K19" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="inlineStr">
+      <c r="A20" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1364,7 +1393,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G20" s="10" t="inlineStr">
+      <c r="G20" s="11" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1422,7 +1451,7 @@
       <c r="K21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="inlineStr">
+      <c r="A22" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1475,12 +1504,16 @@
           <t>thiago varaschim cenci</t>
         </is>
       </c>
-      <c r="E23" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="n"/>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1496,7 +1529,7 @@
       <c r="K23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="inlineStr">
+      <c r="A24" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1535,7 +1568,7 @@
       <c r="K24" s="3" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="inlineStr">
+      <c r="A25" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1553,12 +1586,16 @@
           <t>Lorizete de Andrade</t>
         </is>
       </c>
-      <c r="E25" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="n"/>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1574,7 +1611,7 @@
       <c r="K25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="inlineStr">
+      <c r="A26" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1592,12 +1629,16 @@
           <t>Andressa Maia</t>
         </is>
       </c>
-      <c r="E26" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="n"/>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1613,7 +1654,7 @@
       <c r="K26" s="3" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="inlineStr">
+      <c r="A27" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1652,7 +1693,7 @@
       <c r="K27" s="3" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="inlineStr">
+      <c r="A28" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1695,7 +1736,7 @@
       <c r="K28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="A29" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1738,7 +1779,7 @@
       <c r="K29" s="3" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="inlineStr">
+      <c r="A30" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2031,7 +2072,7 @@
       <c r="K36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="inlineStr">
+      <c r="A37" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2152,7 +2193,7 @@
       <c r="K39" s="3" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="inlineStr">
+      <c r="A40" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2166,12 +2207,16 @@
         <v>1</v>
       </c>
       <c r="D40" s="3" t="n"/>
-      <c r="E40" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F40" s="3" t="n"/>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
       <c r="G40" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2187,7 +2232,7 @@
       <c r="K40" s="3" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="inlineStr">
+      <c r="A41" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2201,12 +2246,16 @@
         <v>2</v>
       </c>
       <c r="D41" s="3" t="n"/>
-      <c r="E41" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F41" s="3" t="n"/>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
       <c r="G41" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2261,7 +2310,7 @@
       <c r="K42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="inlineStr">
+      <c r="A43" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2279,12 +2328,16 @@
           <t>Alexandro Aparecido de Lima Vieira</t>
         </is>
       </c>
-      <c r="E43" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F43" s="3" t="n"/>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
       <c r="G43" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2300,7 +2353,7 @@
       <c r="K43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="inlineStr">
+      <c r="A44" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2382,7 +2435,7 @@
       <c r="K45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="9" t="inlineStr">
+      <c r="A46" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2410,7 +2463,7 @@
           <t>12/03/2025</t>
         </is>
       </c>
-      <c r="G46" s="10" t="inlineStr">
+      <c r="G46" s="11" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2482,12 +2535,16 @@
           <t>Luiz Fernando Pereira Barbosa</t>
         </is>
       </c>
-      <c r="E48" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F48" s="3" t="n"/>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
       <c r="G48" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2521,12 +2578,16 @@
           <t>Carolina Eggers</t>
         </is>
       </c>
-      <c r="E49" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F49" s="3" t="n"/>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>31/03/2025</t>
+        </is>
+      </c>
       <c r="G49" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2624,7 +2685,7 @@
       <c r="K51" s="3" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="inlineStr">
+      <c r="A52" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2652,7 +2713,7 @@
           <t>05/03/2025</t>
         </is>
       </c>
-      <c r="G52" s="10" t="inlineStr">
+      <c r="G52" s="11" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2685,12 +2746,16 @@
           <t>Fernanda Jung</t>
         </is>
       </c>
-      <c r="E53" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F53" s="3" t="n"/>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2706,7 +2771,7 @@
       <c r="K53" s="3" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="inlineStr">
+      <c r="A54" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2745,7 +2810,7 @@
       <c r="K54" s="3" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="inlineStr">
+      <c r="A55" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2763,12 +2828,16 @@
           <t>Isabel Caroline Fruhling</t>
         </is>
       </c>
-      <c r="E55" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F55" s="3" t="n"/>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>03/04/2025</t>
+        </is>
+      </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2827,7 +2896,7 @@
       <c r="K56" s="3" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="inlineStr">
+      <c r="A57" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2855,7 +2924,7 @@
           <t>19/03/2025</t>
         </is>
       </c>
-      <c r="G57" s="10" t="inlineStr">
+      <c r="G57" s="11" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2870,7 +2939,7 @@
       <c r="K57" s="3" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="inlineStr">
+      <c r="A58" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2909,7 +2978,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="inlineStr">
+      <c r="A59" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2937,7 +3006,7 @@
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="G59" s="10" t="inlineStr">
+      <c r="G59" s="11" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2956,7 +3025,7 @@
       <c r="K59" s="3" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="inlineStr">
+      <c r="A60" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2974,12 +3043,16 @@
           <t>Andryws Rafael Gois</t>
         </is>
       </c>
-      <c r="E60" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F60" s="3" t="n"/>
+      <c r="E60" s="9" t="inlineStr">
+        <is>
+          <t>Envio Duplicado</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>22/04/2025, 22/04/2025</t>
+        </is>
+      </c>
       <c r="G60" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2995,7 +3068,7 @@
       <c r="K60" s="3" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="inlineStr">
+      <c r="A61" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -3013,12 +3086,16 @@
           <t>Mayara Ketllyn de Paula Rosetti</t>
         </is>
       </c>
-      <c r="E61" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F61" s="3" t="n"/>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
       <c r="G61" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3034,7 +3111,7 @@
       <c r="K61" s="3" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="inlineStr">
+      <c r="A62" s="12" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -3052,12 +3129,16 @@
           <t>Junior Andre Britzke</t>
         </is>
       </c>
-      <c r="E62" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F62" s="3" t="n"/>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>08/04/2025</t>
+        </is>
+      </c>
       <c r="G62" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3091,12 +3172,16 @@
           <t>Adriano Pereira Guedes</t>
         </is>
       </c>
-      <c r="E63" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F63" s="3" t="n"/>
+      <c r="E63" s="9" t="inlineStr">
+        <is>
+          <t>Envio Duplicado</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 04/04/2025, 12/05/2025</t>
+        </is>
+      </c>
       <c r="G63" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3255,12 +3340,16 @@
           <t xml:space="preserve">Ademir Papini Júnior </t>
         </is>
       </c>
-      <c r="E67" s="7" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F67" s="3" t="n"/>
+      <c r="E67" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
       <c r="G67" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3276,7 +3365,7 @@
       <c r="K67" s="3" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="9" t="inlineStr">
+      <c r="A68" s="10" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>

--- a/form2/grs_atualizado_form2.xlsx
+++ b/form2/grs_atualizado_form2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="grs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +556,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="51" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
     <col width="75" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="22" customWidth="1" min="8" max="8"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="E14" s="9" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="E60" s="9" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="E63" s="9" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
